--- a/00_raw_data/CM_Stage2_submitted-2023-02-13.xlsx
+++ b/00_raw_data/CM_Stage2_submitted-2023-02-13.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9480A9DC-A86E-394D-AA49-31BA0A3D8EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACCB479-E126-744E-B1B6-FBFBA35224F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30960" yWindow="-540" windowWidth="39740" windowHeight="20780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="800" windowWidth="34560" windowHeight="19560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -40,8 +40,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -786,9 +790,6 @@
     <t>1 sigma</t>
   </si>
   <si>
-    <t>DateOfAurvey</t>
-  </si>
-  <si>
     <t>Line Name</t>
   </si>
   <si>
@@ -802,6 +803,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>DateOfSurvey</t>
   </si>
 </sst>
 </file>
@@ -1187,16 +1191,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -1284,6 +1278,16 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1298,7 +1302,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A7" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A7" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:A7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FacilityID"/>
@@ -1308,7 +1312,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="K1:K7" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="K1:K7" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="K1:K7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Gas"/>
@@ -1318,7 +1322,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="C1:C39" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="C1:C39" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="C1:C39" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="EquipmentUnitID"/>
@@ -1328,7 +1332,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="D1:D39" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="D1:D39" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="D1:D39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="EquipmentType"/>
@@ -1338,7 +1342,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="E1:E39" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="E1:E39" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="E1:E39" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="EquipmentGroup">
@@ -1353,7 +1357,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="M1:M4" totalsRowShown="0">
   <autoFilter ref="M1:M4" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Pad" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Pad" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1781,7 +1785,7 @@
   <dimension ref="A1:U1122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z111" sqref="Z111"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1819,16 +1823,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E1" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>233</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>91</v>
@@ -1861,7 +1865,7 @@
         <v>102</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S1" s="34" t="s">
         <v>89</v>
@@ -23653,7 +23657,7 @@
       <c r="I502" s="20"/>
       <c r="J502" s="20"/>
       <c r="K502" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L502" s="29"/>
       <c r="M502" s="29"/>
@@ -23678,7 +23682,7 @@
       <c r="I503" s="20"/>
       <c r="J503" s="20"/>
       <c r="K503" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L503" s="29"/>
       <c r="M503" s="29"/>
@@ -23703,7 +23707,7 @@
       <c r="I504" s="20"/>
       <c r="J504" s="20"/>
       <c r="K504" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L504" s="29"/>
       <c r="M504" s="29"/>
@@ -23728,7 +23732,7 @@
       <c r="I505" s="20"/>
       <c r="J505" s="20"/>
       <c r="K505" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L505" s="29"/>
       <c r="M505" s="29"/>
@@ -23753,7 +23757,7 @@
       <c r="I506" s="20"/>
       <c r="J506" s="20"/>
       <c r="K506" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L506" s="29"/>
       <c r="M506" s="29"/>
@@ -23778,7 +23782,7 @@
       <c r="I507" s="20"/>
       <c r="J507" s="20"/>
       <c r="K507" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L507" s="29"/>
       <c r="M507" s="29"/>
@@ -23803,7 +23807,7 @@
       <c r="I508" s="20"/>
       <c r="J508" s="20"/>
       <c r="K508" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L508" s="29"/>
       <c r="M508" s="29"/>
@@ -23828,7 +23832,7 @@
       <c r="I509" s="20"/>
       <c r="J509" s="20"/>
       <c r="K509" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L509" s="29"/>
       <c r="M509" s="29"/>
@@ -23853,7 +23857,7 @@
       <c r="I510" s="20"/>
       <c r="J510" s="20"/>
       <c r="K510" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L510" s="29"/>
       <c r="M510" s="29"/>
@@ -23878,7 +23882,7 @@
       <c r="I511" s="20"/>
       <c r="J511" s="20"/>
       <c r="K511" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L511" s="29"/>
       <c r="M511" s="29"/>
@@ -23903,7 +23907,7 @@
       <c r="I512" s="20"/>
       <c r="J512" s="20"/>
       <c r="K512" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L512" s="29"/>
       <c r="M512" s="29"/>
@@ -23928,7 +23932,7 @@
       <c r="I513" s="20"/>
       <c r="J513" s="20"/>
       <c r="K513" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L513" s="29"/>
       <c r="M513" s="29"/>
@@ -23953,7 +23957,7 @@
       <c r="I514" s="20"/>
       <c r="J514" s="20"/>
       <c r="K514" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L514" s="29"/>
       <c r="M514" s="29"/>
@@ -23978,7 +23982,7 @@
       <c r="I515" s="20"/>
       <c r="J515" s="20"/>
       <c r="K515" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L515" s="29"/>
       <c r="M515" s="29"/>
@@ -24003,7 +24007,7 @@
       <c r="I516" s="20"/>
       <c r="J516" s="20"/>
       <c r="K516" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L516" s="29"/>
       <c r="M516" s="29"/>
@@ -24028,7 +24032,7 @@
       <c r="I517" s="20"/>
       <c r="J517" s="20"/>
       <c r="K517" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L517" s="29"/>
       <c r="M517" s="29"/>
@@ -24053,7 +24057,7 @@
       <c r="I518" s="20"/>
       <c r="J518" s="20"/>
       <c r="K518" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L518" s="29"/>
       <c r="M518" s="29"/>
@@ -24078,7 +24082,7 @@
       <c r="I519" s="20"/>
       <c r="J519" s="20"/>
       <c r="K519" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L519" s="29"/>
       <c r="M519" s="29"/>
@@ -24103,7 +24107,7 @@
       <c r="I520" s="20"/>
       <c r="J520" s="20"/>
       <c r="K520" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L520" s="29"/>
       <c r="M520" s="29"/>
@@ -24128,7 +24132,7 @@
       <c r="I521" s="20"/>
       <c r="J521" s="20"/>
       <c r="K521" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L521" s="29"/>
       <c r="M521" s="29"/>
@@ -24153,7 +24157,7 @@
       <c r="I522" s="20"/>
       <c r="J522" s="20"/>
       <c r="K522" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L522" s="29"/>
       <c r="M522" s="29"/>
@@ -24178,7 +24182,7 @@
       <c r="I523" s="20"/>
       <c r="J523" s="20"/>
       <c r="K523" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L523" s="29"/>
       <c r="M523" s="29"/>
@@ -24203,7 +24207,7 @@
       <c r="I524" s="20"/>
       <c r="J524" s="20"/>
       <c r="K524" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L524" s="29"/>
       <c r="M524" s="29"/>
@@ -24228,7 +24232,7 @@
       <c r="I525" s="20"/>
       <c r="J525" s="20"/>
       <c r="K525" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L525" s="29"/>
       <c r="M525" s="29"/>
@@ -24253,7 +24257,7 @@
       <c r="I526" s="20"/>
       <c r="J526" s="20"/>
       <c r="K526" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L526" s="29"/>
       <c r="M526" s="29"/>
@@ -24278,7 +24282,7 @@
       <c r="I527" s="20"/>
       <c r="J527" s="20"/>
       <c r="K527" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L527" s="29"/>
       <c r="M527" s="29"/>
@@ -24303,7 +24307,7 @@
       <c r="I528" s="20"/>
       <c r="J528" s="20"/>
       <c r="K528" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L528" s="29"/>
       <c r="M528" s="29"/>
@@ -28465,7 +28469,7 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2:A528 C502:C528">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <dataValidations xWindow="155" yWindow="350" count="16">
     <dataValidation type="time" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="StartTime" prompt="Enter the time you started this survey._x000a_Please enter local time (Mountain Time)." sqref="I2:I528" xr:uid="{E244DC81-C591-6F41-B527-65477C5F156E}">
